--- a/database/sample_excel_file.xlsx
+++ b/database/sample_excel_file.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tiket_apps\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCA016-50F4-44CC-BC7F-7BF852A23E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,47 +24,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Contact_NO</t>
-  </si>
-  <si>
-    <t>Mahilan</t>
-  </si>
-  <si>
-    <t>Mahi</t>
-  </si>
-  <si>
-    <t>mahi@gmail.com</t>
-  </si>
-  <si>
-    <t>jai</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>jai@gmail.com</t>
-  </si>
-  <si>
-    <t>raj@gmail.com</t>
-  </si>
-  <si>
-    <t>raj</t>
+    <t>tiket_number</t>
+  </si>
+  <si>
+    <t>submitted_date</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>TK0001</t>
+  </si>
+  <si>
+    <t>TK0002</t>
+  </si>
+  <si>
+    <t>TK0003</t>
+  </si>
+  <si>
+    <t>TK0004</t>
+  </si>
+  <si>
+    <t>sinar jaya</t>
+  </si>
+  <si>
+    <t>mobolio</t>
+  </si>
+  <si>
+    <t>auto2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +76,17 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -98,9 +115,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -108,6 +126,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +212,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +264,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,22 +457,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,78 +485,104 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>45638</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>300000</v>
+      </c>
+      <c r="E2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>8508631633</v>
+      <c r="B3" s="1">
+        <v>45639</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>200000</v>
+      </c>
+      <c r="E3">
+        <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1">
+        <v>45640</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>100000</v>
+      </c>
+      <c r="E4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>9848187252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B5" s="1">
+        <v>45641</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>7895468956</v>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
